--- a/data/trans_orig/P64S_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Estudios-trans_orig.xlsx
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6379</v>
+        <v>6244</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01084807054730695</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03958594433151007</v>
+        <v>0.03874798618652239</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -856,19 +856,19 @@
         <v>3007</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1186</v>
+        <v>897</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7225</v>
+        <v>6794</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03578302985401039</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01411400867605965</v>
+        <v>0.01067128523418049</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0859646872765069</v>
+        <v>0.08083596741729795</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -877,19 +877,19 @@
         <v>4755</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1889</v>
+        <v>1789</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9482</v>
+        <v>9642</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01939552405715868</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007702887631949268</v>
+        <v>0.007298395966362254</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03867403427924516</v>
+        <v>0.039325726948613</v>
       </c>
     </row>
     <row r="7">
@@ -906,19 +906,19 @@
         <v>2979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7376</v>
+        <v>8075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01848768401806775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00545974009415982</v>
+        <v>0.005390549696289214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04577653629767815</v>
+        <v>0.05011319825408353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -927,19 +927,19 @@
         <v>4255</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1416</v>
+        <v>1440</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9315</v>
+        <v>9337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05063057811219912</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0168532304103586</v>
+        <v>0.0171289272645142</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1108332576467974</v>
+        <v>0.1110946918677985</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -948,19 +948,19 @@
         <v>7234</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3453</v>
+        <v>3659</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14611</v>
+        <v>14672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02950594514945109</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01408451361922434</v>
+        <v>0.01492340267338887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05959076079935202</v>
+        <v>0.05984236230478641</v>
       </c>
     </row>
     <row r="8">
@@ -1074,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4654</v>
+        <v>5115</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.005660159980137964</v>
+        <v>0.005660159980137963</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0288833830603253</v>
+        <v>0.03174356982140067</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4897</v>
+        <v>4208</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003719914010875593</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0199747571928927</v>
+        <v>0.01716149721323352</v>
       </c>
     </row>
     <row r="11">
@@ -1181,19 +1181,19 @@
         <v>4294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1071</v>
+        <v>1027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10072</v>
+        <v>9998</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02664858894192615</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006644004934732389</v>
+        <v>0.00637039779777774</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06250469510547683</v>
+        <v>0.06204725948286571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5838</v>
+        <v>6262</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02065030818969843</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06946137126958135</v>
+        <v>0.07450156087148628</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1223,19 +1223,19 @@
         <v>6030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2081</v>
+        <v>2038</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12273</v>
+        <v>12186</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02459243856934777</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008487279221121632</v>
+        <v>0.008313063696782957</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05005829245841906</v>
+        <v>0.04970302563113755</v>
       </c>
     </row>
     <row r="13">
@@ -1255,16 +1255,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6056</v>
+        <v>6005</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.00730946914305013</v>
+        <v>0.007309469143050129</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03758452823419651</v>
+        <v>0.03726587641097624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6067</v>
+        <v>5965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004803856564604069</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02474453563117148</v>
+        <v>0.02433068450953745</v>
       </c>
     </row>
     <row r="14">
@@ -1315,19 +1315,19 @@
         <v>4402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1379</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12056</v>
+        <v>10179</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0273173306247159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008555726425994588</v>
+        <v>0.007150803215371273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07482150039318371</v>
+        <v>0.06316772483352637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1336,19 +1336,19 @@
         <v>4943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2276</v>
+        <v>2392</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8707</v>
+        <v>8970</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05881301955217932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0270761998649841</v>
+        <v>0.0284655630779392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1036031366106206</v>
+        <v>0.1067321524096225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1357,19 +1357,19 @@
         <v>9345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4284</v>
+        <v>5044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16335</v>
+        <v>16806</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03811373632792765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0174741557275707</v>
+        <v>0.02057376832498191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0666254611256852</v>
+        <v>0.06854406689545776</v>
       </c>
     </row>
     <row r="15">
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4464</v>
+        <v>5474</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.005379213353668878</v>
+        <v>0.005379213353668877</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02770345811012986</v>
+        <v>0.0339714627164784</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5339</v>
+        <v>4369</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00353527306507584</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02177630907987978</v>
+        <v>0.01781909730271717</v>
       </c>
     </row>
     <row r="16">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6179</v>
+        <v>6337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01148508348609495</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03834924132636486</v>
+        <v>0.03932967012472842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1470,19 +1470,19 @@
         <v>9070</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4818</v>
+        <v>5137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14889</v>
+        <v>14750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1079165392343051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05733130549481606</v>
+        <v>0.06112377420046312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1771498297844817</v>
+        <v>0.1754946276726597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1491,19 +1491,19 @@
         <v>10921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5690</v>
+        <v>6098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18056</v>
+        <v>17803</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04454081759645959</v>
+        <v>0.04454081759645958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02320917608490554</v>
+        <v>0.02487042372338546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07364546239253339</v>
+        <v>0.07261155977497483</v>
       </c>
     </row>
     <row r="17">
@@ -1520,19 +1520,19 @@
         <v>112018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96330</v>
+        <v>95690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124319</v>
+        <v>125267</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6951776403971713</v>
+        <v>0.6951776403971712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5978181161678153</v>
+        <v>0.5938476197708444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7715190524901093</v>
+        <v>0.7773977580463456</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -1541,19 +1541,19 @@
         <v>29599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22449</v>
+        <v>22142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38495</v>
+        <v>38318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3521808776443082</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2671034633891589</v>
+        <v>0.2634454184937286</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4580182939117951</v>
+        <v>0.4559124582131496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -1562,19 +1562,19 @@
         <v>141617</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124953</v>
+        <v>124861</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>159116</v>
+        <v>156500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5776017964746355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5096345548287686</v>
+        <v>0.5092618111052417</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6489733488559464</v>
+        <v>0.6383051627094113</v>
       </c>
     </row>
     <row r="18">
@@ -1591,19 +1591,19 @@
         <v>7771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1138</v>
+        <v>1098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25739</v>
+        <v>23185</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04822859870471111</v>
+        <v>0.0482285987047111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007059426581345577</v>
+        <v>0.006817116798279762</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1597365271945955</v>
+        <v>0.1438832829147068</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1625,19 +1625,19 @@
         <v>7771</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1115</v>
+        <v>1091</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24298</v>
+        <v>24109</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03169631965812005</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004546081838229422</v>
+        <v>0.004449769884403143</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09910276504372435</v>
+        <v>0.09833152628131497</v>
       </c>
     </row>
     <row r="19">
@@ -1654,19 +1654,19 @@
         <v>23116</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14859</v>
+        <v>13722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37930</v>
+        <v>36563</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1434581608031489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09221324758197877</v>
+        <v>0.08516006703423061</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.235391794536779</v>
+        <v>0.226910010601834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1675,19 +1675,19 @@
         <v>31435</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24450</v>
+        <v>23900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39936</v>
+        <v>40293</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3740256474132995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.290910929619767</v>
+        <v>0.284362271148267</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4751649090731809</v>
+        <v>0.4794214833785916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -1696,19 +1696,19 @@
         <v>54551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42636</v>
+        <v>43037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69283</v>
+        <v>69583</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2224943785263441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1738966789121828</v>
+        <v>0.1755334671672933</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2825809273647627</v>
+        <v>0.2838045100732797</v>
       </c>
     </row>
     <row r="20">
@@ -1863,16 +1863,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4638</v>
+        <v>4600</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0009968852629568495</v>
+        <v>0.0009968852629568497</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.004970004764735818</v>
+        <v>0.004929496885486172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4888</v>
+        <v>5547</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0004238799978465896</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002227320450717883</v>
+        <v>0.002527556407949988</v>
       </c>
     </row>
     <row r="23">
@@ -1910,19 +1910,19 @@
         <v>76889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58897</v>
+        <v>60999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95530</v>
+        <v>96132</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06094849426954279</v>
+        <v>0.06094849426954278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04668688489661082</v>
+        <v>0.04835295811154511</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07572457342792122</v>
+        <v>0.07620203207745947</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -1931,19 +1931,19 @@
         <v>74162</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60376</v>
+        <v>61727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88202</v>
+        <v>89150</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.07946899841846301</v>
+        <v>0.07946899841846304</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0646959739430753</v>
+        <v>0.06614344685679814</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09451328631177502</v>
+        <v>0.0955295892677058</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>197</v>
@@ -1952,19 +1952,19 @@
         <v>151051</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>131137</v>
+        <v>129570</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>177673</v>
+        <v>175840</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06882349408193532</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0597501443439386</v>
+        <v>0.05903595271870188</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08095334902071538</v>
+        <v>0.08011782420897558</v>
       </c>
     </row>
     <row r="24">
@@ -1981,19 +1981,19 @@
         <v>39533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26715</v>
+        <v>27732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53056</v>
+        <v>53491</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03133733180739074</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02117647434956125</v>
+        <v>0.02198285699560312</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04205686002522452</v>
+        <v>0.04240104501788721</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2002,19 +2002,19 @@
         <v>41083</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29516</v>
+        <v>30753</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53633</v>
+        <v>53990</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04402287174566542</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03162783930440129</v>
+        <v>0.0329530757701649</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0574704042256468</v>
+        <v>0.05785302569941365</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -2023,19 +2023,19 @@
         <v>80616</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63244</v>
+        <v>64715</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100575</v>
+        <v>99972</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03673127917678971</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02881568203501582</v>
+        <v>0.02948623661365083</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04582503223352501</v>
+        <v>0.04555028396111704</v>
       </c>
     </row>
     <row r="25">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6990</v>
+        <v>6989</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.001629208722277487</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.005540548639409722</v>
+        <v>0.00553975596038454</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7109</v>
+        <v>7076</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0009364620087366747</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.003239017942249269</v>
+        <v>0.003224231619628123</v>
       </c>
     </row>
     <row r="28">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12386</v>
+        <v>14288</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002090280084577045</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009818280028060795</v>
+        <v>0.01132566873602085</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2233,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3661</v>
+        <v>4037</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0007749784372940734</v>
+        <v>0.0007749784372940735</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.003923491753193626</v>
+        <v>0.004326117703807571</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15276</v>
+        <v>14187</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00153100803980407</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006960022626695111</v>
+        <v>0.006463865963446254</v>
       </c>
     </row>
     <row r="29">
@@ -2280,19 +2280,19 @@
         <v>27144</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17109</v>
+        <v>16266</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42423</v>
+        <v>41311</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02151631365234648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01356177632279344</v>
+        <v>0.01289361809387467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03362823054954493</v>
+        <v>0.0327468787516702</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2301,19 +2301,19 @@
         <v>22805</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15466</v>
+        <v>15492</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33909</v>
+        <v>34126</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02443708572083816</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0165726700785215</v>
+        <v>0.0166001875094578</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03633531262402984</v>
+        <v>0.03656781168889903</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -2322,19 +2322,19 @@
         <v>49949</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37716</v>
+        <v>36552</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68535</v>
+        <v>68893</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02275823878065106</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01718438175166146</v>
+        <v>0.01665432752496106</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03122672925018416</v>
+        <v>0.03138972054888038</v>
       </c>
     </row>
     <row r="30">
@@ -2351,19 +2351,19 @@
         <v>5347</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1861</v>
+        <v>1410</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14998</v>
+        <v>13127</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004238447169125983</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001475064373346335</v>
+        <v>0.001117523602911541</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01188896163613403</v>
+        <v>0.01040574938129543</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5995</v>
+        <v>6234</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001857662568558232</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006423748825369117</v>
+        <v>0.006680360751531172</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2393,19 +2393,19 @@
         <v>7081</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2664</v>
+        <v>2749</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16285</v>
+        <v>15515</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003226127086904511</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001213701843716673</v>
+        <v>0.001252719072915764</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007420124930125746</v>
+        <v>0.007069214390403926</v>
       </c>
     </row>
     <row r="31">
@@ -2422,19 +2422,19 @@
         <v>32077</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21808</v>
+        <v>22081</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49104</v>
+        <v>47980</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02542656012986897</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01728705138230821</v>
+        <v>0.01750307463826633</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03892357940326438</v>
+        <v>0.03803284733568384</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -2443,19 +2443,19 @@
         <v>31825</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23195</v>
+        <v>23446</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43188</v>
+        <v>43182</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03410263962731151</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02485484175468816</v>
+        <v>0.02512324598910451</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04627883408281996</v>
+        <v>0.04627139301592294</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -2464,19 +2464,19 @@
         <v>63902</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49969</v>
+        <v>48725</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83390</v>
+        <v>82755</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0291156672872811</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02276746314999552</v>
+        <v>0.02220076444591012</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03799493767600996</v>
+        <v>0.03770589155509834</v>
       </c>
     </row>
     <row r="32">
@@ -2493,19 +2493,19 @@
         <v>6609</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2607</v>
+        <v>2746</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13088</v>
+        <v>13281</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005239209345947156</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002066684526472688</v>
+        <v>0.002177025942231872</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01037436525753315</v>
+        <v>0.01052732071195833</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2514,19 +2514,19 @@
         <v>6882</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2534</v>
+        <v>2904</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14926</v>
+        <v>16465</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.007374009966861831</v>
+        <v>0.007374009966861833</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00271542619671679</v>
+        <v>0.003111290927232612</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01599448935097032</v>
+        <v>0.01764335959105568</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -2535,19 +2535,19 @@
         <v>13491</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7199</v>
+        <v>7577</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24509</v>
+        <v>23338</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.006146935958247755</v>
+        <v>0.006146935958247753</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003280202719781083</v>
+        <v>0.003452103961411918</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01116687215229313</v>
+        <v>0.01063350776082011</v>
       </c>
     </row>
     <row r="33">
@@ -2564,19 +2564,19 @@
         <v>47165</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>33465</v>
+        <v>33412</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>62770</v>
+        <v>65563</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03738695782786389</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02652742603153445</v>
+        <v>0.02648503075417834</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04975637741892426</v>
+        <v>0.05197063067171669</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>57</v>
@@ -2585,19 +2585,19 @@
         <v>49901</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>37297</v>
+        <v>38118</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>64094</v>
+        <v>64162</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.05347176484233632</v>
+        <v>0.05347176484233633</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03996597950678338</v>
+        <v>0.04084522242434306</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.068679993515372</v>
+        <v>0.06875326591194404</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>96</v>
@@ -2606,19 +2606,19 @@
         <v>97066</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>78688</v>
+        <v>78954</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>119486</v>
+        <v>119610</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04422628850713836</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0358524498942045</v>
+        <v>0.035973645960918</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05444148267039694</v>
+        <v>0.05449782281023451</v>
       </c>
     </row>
     <row r="34">
@@ -2635,19 +2635,19 @@
         <v>843161</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>802471</v>
+        <v>800816</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>878962</v>
+        <v>877836</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.6683587495364137</v>
+        <v>0.6683587495364138</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6361040125076588</v>
+        <v>0.6347920546263317</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6967374242641106</v>
+        <v>0.6958445656321917</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>618</v>
@@ -2656,19 +2656,19 @@
         <v>463173</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>434490</v>
+        <v>437149</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>490584</v>
+        <v>493842</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4963149985113257</v>
+        <v>0.4963149985113258</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4655801665740819</v>
+        <v>0.4684293321257278</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.525687685953633</v>
+        <v>0.5291784780099571</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1341</v>
@@ -2677,19 +2677,19 @@
         <v>1306334</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1258214</v>
+        <v>1257986</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1350918</v>
+        <v>1355313</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5952049899976993</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5732801691430781</v>
+        <v>0.5731760824571492</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6155188950129513</v>
+        <v>0.6175212796356045</v>
       </c>
     </row>
     <row r="35">
@@ -2706,19 +2706,19 @@
         <v>14463</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6723</v>
+        <v>7409</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26678</v>
+        <v>26209</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01146491746912498</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005329362095604686</v>
+        <v>0.005872679897298491</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02114703180701429</v>
+        <v>0.02077522394402141</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2727,19 +2727,19 @@
         <v>7169</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3792</v>
+        <v>3768</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13331</v>
+        <v>13096</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.007682131427653328</v>
+        <v>0.007682131427653329</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004063536013592833</v>
+        <v>0.004037324390196651</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01428515965679721</v>
+        <v>0.01403290238617325</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>20</v>
@@ -2748,19 +2748,19 @@
         <v>21633</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13388</v>
+        <v>13375</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32722</v>
+        <v>33992</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.009856460208600187</v>
+        <v>0.009856460208600188</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006100018465323862</v>
+        <v>0.006094172700745006</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01490891998590676</v>
+        <v>0.01548794627258283</v>
       </c>
     </row>
     <row r="36">
@@ -2777,19 +2777,19 @@
         <v>164459</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>138768</v>
+        <v>139401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>195673</v>
+        <v>194204</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1303635299855206</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1099991464340767</v>
+        <v>0.1105005730513199</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1551062763142895</v>
+        <v>0.1539419086786171</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>314</v>
@@ -2798,19 +2798,19 @@
         <v>232835</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>207706</v>
+        <v>208870</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>256850</v>
+        <v>257638</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2494959734707355</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2225684101690034</v>
+        <v>0.2238159033586096</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2752285309545248</v>
+        <v>0.2760730948226317</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>447</v>
@@ -2819,19 +2819,19 @@
         <v>397294</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>362075</v>
+        <v>364932</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>433540</v>
+        <v>436223</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1810191688683653</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1649723674946663</v>
+        <v>0.1662741864692218</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1975338570337231</v>
+        <v>0.1987564680173964</v>
       </c>
     </row>
     <row r="37">
@@ -2926,16 +2926,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7144</v>
+        <v>7281</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.003005115693919855</v>
+        <v>0.003005115693919854</v>
       </c>
       <c r="H38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01493525007600932</v>
+        <v>0.01521999970229721</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7257</v>
+        <v>7157</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001509828314658806</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.00762215590644458</v>
+        <v>0.007516965076790514</v>
       </c>
     </row>
     <row r="39">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5216</v>
+        <v>4606</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001931883578072658</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01090344858225796</v>
+        <v>0.009629588728381572</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -3023,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4955</v>
+        <v>4655</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.0009706157179571991</v>
+        <v>0.000970615717957199</v>
       </c>
       <c r="V39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.005203714425540274</v>
+        <v>0.004889417805791559</v>
       </c>
     </row>
     <row r="40">
@@ -3049,19 +3049,19 @@
         <v>27319</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>19727</v>
+        <v>18917</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>38487</v>
+        <v>38441</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05711013113190296</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04123910729516519</v>
+        <v>0.03954558393491533</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08045535185423063</v>
+        <v>0.08035875060699356</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>76</v>
@@ -3070,19 +3070,19 @@
         <v>46818</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37470</v>
+        <v>36851</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>58649</v>
+        <v>58648</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.0988232700724313</v>
+        <v>0.09882327007243129</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07909222986651804</v>
+        <v>0.07778555397004273</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1237949371989768</v>
+        <v>0.1237930367384269</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>108</v>
@@ -3091,19 +3091,19 @@
         <v>74137</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>60106</v>
+        <v>61353</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>90122</v>
+        <v>90773</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.0778657813497405</v>
+        <v>0.07786578134974048</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0631286906716365</v>
+        <v>0.06443882606521416</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0946540858982583</v>
+        <v>0.09533843112480345</v>
       </c>
     </row>
     <row r="41">
@@ -3120,19 +3120,19 @@
         <v>11142</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5430</v>
+        <v>5034</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>21549</v>
+        <v>20794</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.02329215653651828</v>
+        <v>0.02329215653651827</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01135045416033703</v>
+        <v>0.01052355228661426</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04504777835366002</v>
+        <v>0.04346935409278683</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3141,19 +3141,19 @@
         <v>10707</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5773</v>
+        <v>6133</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16659</v>
+        <v>16491</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02259951913279762</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01218634231586212</v>
+        <v>0.0129448293470702</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03516411168908155</v>
+        <v>0.03480843524260509</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -3162,19 +3162,19 @@
         <v>21849</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>14752</v>
+        <v>13826</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>33203</v>
+        <v>32273</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.0229475135764209</v>
+        <v>0.02294751357642089</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01549350014334228</v>
+        <v>0.01452096249577728</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03487304695001743</v>
+        <v>0.03389566533830944</v>
       </c>
     </row>
     <row r="42">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9567</v>
+        <v>11279</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.003947681455917096</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02000014107933223</v>
+        <v>0.02357882765722664</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4056</v>
+        <v>4869</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001697955963237716</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.008560490738479972</v>
+        <v>0.01027822753151526</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>12639</v>
+        <v>11230</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.002828261613675562</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01327423158578403</v>
+        <v>0.01179498354542195</v>
       </c>
     </row>
     <row r="43">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>4954</v>
+        <v>4827</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.002878805859595651</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01045698938722686</v>
+        <v>0.01018915611778734</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4703</v>
+        <v>4190</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.001432438051521797</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.004939496673216482</v>
+        <v>0.004400583048877081</v>
       </c>
     </row>
     <row r="44">
@@ -3328,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>5965</v>
+        <v>5972</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.003594732644711816</v>
+        <v>0.003594732644711815</v>
       </c>
       <c r="H44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01246866619150652</v>
+        <v>0.01248506686264836</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5937</v>
+        <v>6969</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.001806063287877855</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006235770709301641</v>
+        <v>0.00731924007047546</v>
       </c>
     </row>
     <row r="45">
@@ -3435,19 +3435,19 @@
         <v>9838</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4373</v>
+        <v>4734</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>17691</v>
+        <v>19247</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0205656905493637</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009140742626943572</v>
+        <v>0.009896687623677854</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03698184953439106</v>
+        <v>0.04023597567425556</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>19</v>
@@ -3456,19 +3456,19 @@
         <v>14269</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8649</v>
+        <v>9144</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>22020</v>
+        <v>22494</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03011960537065285</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01825686353840917</v>
+        <v>0.01930113588132261</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04647898176528516</v>
+        <v>0.04747916428759294</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>28</v>
@@ -3477,19 +3477,19 @@
         <v>24107</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>15924</v>
+        <v>16357</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>34401</v>
+        <v>34283</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02531953356569509</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01672450664842039</v>
+        <v>0.0171794279132348</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03613062161825478</v>
+        <v>0.0360069798290835</v>
       </c>
     </row>
     <row r="47">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6846</v>
+        <v>7238</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.002624587438698103</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01431165832234803</v>
+        <v>0.01513094647076967</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -3527,19 +3527,19 @@
         <v>2878</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>7872</v>
+        <v>9301</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.006074883936925514</v>
+        <v>0.006074883936925513</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001471441830039145</v>
+        <v>0.001467838942902553</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0166168076507885</v>
+        <v>0.01963284603810583</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4</v>
@@ -3548,19 +3548,19 @@
         <v>4134</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1257</v>
+        <v>1276</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>11463</v>
+        <v>11416</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.004341388165853613</v>
+        <v>0.004341388165853612</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001320230010763443</v>
+        <v>0.001340127442891897</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01203976791151621</v>
+        <v>0.01198974360408018</v>
       </c>
     </row>
     <row r="48">
@@ -3577,19 +3577,19 @@
         <v>46171</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>32231</v>
+        <v>31950</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>63981</v>
+        <v>61810</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.09651781172063781</v>
+        <v>0.09651781172063778</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.06737691538287946</v>
+        <v>0.06678948245394968</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.133749854411628</v>
+        <v>0.1292114980681211</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>30</v>
@@ -3598,19 +3598,19 @@
         <v>23460</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>16098</v>
+        <v>16333</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>32676</v>
+        <v>33661</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04951978640968636</v>
+        <v>0.04951978640968635</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03398016377616286</v>
+        <v>0.03447561193389426</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0689713050391198</v>
+        <v>0.07105211157453256</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>65</v>
@@ -3619,19 +3619,19 @@
         <v>69631</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>53592</v>
+        <v>54176</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>86868</v>
+        <v>90548</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.07313250437961161</v>
+        <v>0.07313250437961159</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.05628694606736509</v>
+        <v>0.05690040493631226</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.09123612419978369</v>
+        <v>0.09510175225451481</v>
       </c>
     </row>
     <row r="49">
@@ -3648,19 +3648,19 @@
         <v>4022</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>10894</v>
+        <v>10956</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.008408637088283795</v>
+        <v>0.008408637088283794</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.002668673142057758</v>
+        <v>0.002705910867440697</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02277335697159572</v>
+        <v>0.02290261400722123</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>7747</v>
+        <v>7362</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.003064577451719416</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01635161398831785</v>
+        <v>0.01553920710820848</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4</v>
@@ -3690,19 +3690,19 @@
         <v>5474</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1406</v>
+        <v>1348</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>13940</v>
+        <v>13312</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.005749536493674137</v>
+        <v>0.005749536493674136</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001476328330909741</v>
+        <v>0.001415902489232965</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01464052360658011</v>
+        <v>0.01398194575628816</v>
       </c>
     </row>
     <row r="50">
@@ -3719,19 +3719,19 @@
         <v>10046</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>5053</v>
+        <v>5150</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>19644</v>
+        <v>19797</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02100142364313623</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01056210595771796</v>
+        <v>0.01076544954012387</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04106509458138601</v>
+        <v>0.04138492956610623</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>19</v>
@@ -3740,19 +3740,19 @@
         <v>15908</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9453</v>
+        <v>9938</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>24515</v>
+        <v>24921</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03357912558816827</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01995431798567138</v>
+        <v>0.02097765197640829</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05174546904482766</v>
+        <v>0.05260223186320267</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>28</v>
@@ -3761,19 +3761,19 @@
         <v>25955</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>17328</v>
+        <v>16468</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>38099</v>
+        <v>36744</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.02725984458066142</v>
+        <v>0.02725984458066141</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01819974628120404</v>
+        <v>0.0172957926310804</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04001524115750831</v>
+        <v>0.03859172836704447</v>
       </c>
     </row>
     <row r="51">
@@ -3790,19 +3790,19 @@
         <v>279100</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>256025</v>
+        <v>255429</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>304496</v>
+        <v>302895</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.5834483856536022</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5352110191933608</v>
+        <v>0.5339653432828921</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6365380384290183</v>
+        <v>0.6331898879369476</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>331</v>
@@ -3811,19 +3811,19 @@
         <v>250698</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>230860</v>
+        <v>230721</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>268728</v>
+        <v>268373</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.5291712673199711</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.4872978821237659</v>
+        <v>0.4870032461223008</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.5672280833110016</v>
+        <v>0.5664804236379459</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>570</v>
@@ -3832,19 +3832,19 @@
         <v>529798</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>500239</v>
+        <v>499909</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>562189</v>
+        <v>560840</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.5564411425743607</v>
+        <v>0.5564411425743606</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5253955974136362</v>
+        <v>0.5250490216115433</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.5904616908038478</v>
+        <v>0.5890449125346165</v>
       </c>
     </row>
     <row r="52">
@@ -3861,19 +3861,19 @@
         <v>6102</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2796</v>
+        <v>2229</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>13548</v>
+        <v>12635</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.0127556600548457</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.005845618207716436</v>
+        <v>0.004659969416364817</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02832234824246273</v>
+        <v>0.02641262713182936</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>10</v>
@@ -3882,19 +3882,19 @@
         <v>7745</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>4074</v>
+        <v>3792</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>14432</v>
+        <v>14420</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01634891810229171</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.008598376379199113</v>
+        <v>0.008003625039625617</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.03046233610605971</v>
+        <v>0.03043830127540194</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>16</v>
@@ -3903,19 +3903,19 @@
         <v>13847</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>7822</v>
+        <v>8553</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>22083</v>
+        <v>23119</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01454359568063379</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.00821577372264732</v>
+        <v>0.008982804692781883</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02319384467227602</v>
+        <v>0.02428179690632031</v>
       </c>
     </row>
     <row r="53">
@@ -3932,19 +3932,19 @@
         <v>77397</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>60279</v>
+        <v>61031</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>95232</v>
+        <v>95339</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1617961028103898</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1260103663320163</v>
+        <v>0.1275824578916297</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1990797840338563</v>
+        <v>0.1993016907815937</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>133</v>
@@ -3953,19 +3953,19 @@
         <v>97652</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>83344</v>
+        <v>81939</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>114888</v>
+        <v>113932</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2061222847925224</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1759207575016833</v>
+        <v>0.1729569795548708</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2425046769510487</v>
+        <v>0.240486459476646</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>205</v>
@@ -3974,19 +3974,19 @@
         <v>175049</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>152760</v>
+        <v>152587</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>199941</v>
+        <v>200367</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.183851952647657</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1604427018956293</v>
+        <v>0.1602610308513004</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2099956429663756</v>
+        <v>0.2104434493839936</v>
       </c>
     </row>
     <row r="54">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>7246</v>
+        <v>7946</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.0007561841990529043</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.0038116524174446</v>
+        <v>0.004179910808186322</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>8729</v>
+        <v>7242</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.0004237938284840815</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.002573483582523339</v>
+        <v>0.002134979237958256</v>
       </c>
     </row>
     <row r="56">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>4660</v>
+        <v>5557</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.0004861243242994067</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.002451305308090985</v>
+        <v>0.002923396569562276</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>4720</v>
+        <v>5218</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.0006239443801945857</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.003165885639093233</v>
+        <v>0.003499532777121008</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>6454</v>
+        <v>6500</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.0005467048806085573</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.00190256978978282</v>
+        <v>0.001916157057666348</v>
       </c>
     </row>
     <row r="57">
@@ -4212,19 +4212,19 @@
         <v>105956</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>85919</v>
+        <v>87848</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>127379</v>
+        <v>129177</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.05573603318386527</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.04519602761334691</v>
+        <v>0.04621070650797792</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.06700487146090267</v>
+        <v>0.06795096273333265</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>198</v>
@@ -4233,19 +4233,19 @@
         <v>123988</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>105659</v>
+        <v>107482</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>141957</v>
+        <v>142558</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.08315611477934688</v>
+        <v>0.08315611477934687</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.07086360194039744</v>
+        <v>0.07208616517145963</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.09520746886151613</v>
+        <v>0.0956106091374081</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>312</v>
@@ -4254,19 +4254,19 @@
         <v>229944</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>204613</v>
+        <v>207009</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>256120</v>
+        <v>258613</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.06778887836889383</v>
+        <v>0.06778887836889384</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.06032101520673606</v>
+        <v>0.06102733954012556</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.07550557545631804</v>
+        <v>0.07624072026067215</v>
       </c>
     </row>
     <row r="58">
@@ -4283,19 +4283,19 @@
         <v>53654</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>39885</v>
+        <v>38584</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>72518</v>
+        <v>71270</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02822374578497102</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.02098088810214318</v>
+        <v>0.02029651024461922</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.03814630111883789</v>
+        <v>0.0374899451150634</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>66</v>
@@ -4304,19 +4304,19 @@
         <v>56045</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>43741</v>
+        <v>44079</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>71174</v>
+        <v>70969</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.03758831146640086</v>
+        <v>0.03758831146640085</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.02933627344654963</v>
+        <v>0.02956293421062245</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.0477347070729768</v>
+        <v>0.04759716514975375</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>112</v>
@@ -4325,19 +4325,19 @@
         <v>109700</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>90475</v>
+        <v>92630</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>131585</v>
+        <v>134759</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.03234005958915402</v>
+        <v>0.03234005958915403</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.02667255069447324</v>
+        <v>0.02730785456037937</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.03879208102387866</v>
+        <v>0.03972764578373055</v>
       </c>
     </row>
     <row r="59">
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>9459</v>
+        <v>8706</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.0009933641975576749</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.00497549256191003</v>
+        <v>0.004579773429779702</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>4027</v>
+        <v>4522</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.0005395058033096057</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.002700811830243473</v>
+        <v>0.003033048881781738</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>2</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>11585</v>
+        <v>10513</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.0007938649749623978</v>
+        <v>0.000793864974962398</v>
       </c>
       <c r="V59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.003415367766103257</v>
+        <v>0.003099158670180375</v>
       </c>
     </row>
     <row r="60">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>4138</v>
+        <v>4797</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.0009147071546496351</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.002775147174335004</v>
+        <v>0.003217403417606627</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>2</v>
@@ -4462,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>4726</v>
+        <v>4130</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.0004020711494325661</v>
+        <v>0.0004020711494325662</v>
       </c>
       <c r="V60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.001393372878834718</v>
+        <v>0.001217531760657909</v>
       </c>
     </row>
     <row r="61">
@@ -4488,19 +4488,19 @@
         <v>4687</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>1778</v>
+        <v>1740</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>10585</v>
+        <v>10898</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.002465468954774331</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.000935307393670962</v>
+        <v>0.0009155521247831372</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.005568165423860871</v>
+        <v>0.00573278941584542</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>0</v>
@@ -4522,19 +4522,19 @@
         <v>4687</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>1778</v>
+        <v>1789</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>10716</v>
+        <v>11099</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.001381740756631917</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.0005240648527446725</v>
+        <v>0.00052746840616329</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.0031590220168197</v>
+        <v>0.003272061448201252</v>
       </c>
     </row>
     <row r="62">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>13761</v>
+        <v>15576</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.001387122061849725</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.00723890671895597</v>
+        <v>0.008193254731466183</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>3626</v>
+        <v>3681</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.0004850542571844094</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.002431562942099003</v>
+        <v>0.002468868858619739</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>2</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>15120</v>
+        <v>17345</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.0009906066992615527</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.004457373480378526</v>
+        <v>0.005113299185761217</v>
       </c>
     </row>
     <row r="63">
@@ -4622,19 +4622,19 @@
         <v>41276</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>27907</v>
+        <v>27795</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>58221</v>
+        <v>57879</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.02171212734637824</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01467971078039341</v>
+        <v>0.01462100922421807</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.03062579860107469</v>
+        <v>0.03044602773342719</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>49</v>
@@ -4643,19 +4643,19 @@
         <v>38810</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>29023</v>
+        <v>28660</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>51783</v>
+        <v>51407</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.02602918834489588</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01946521032033369</v>
+        <v>0.01922187131088656</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03472974249676056</v>
+        <v>0.03447785513727213</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>82</v>
@@ -4664,19 +4664,19 @@
         <v>80086</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>64797</v>
+        <v>63035</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>100643</v>
+        <v>99283</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.02360974634828639</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01910267618967375</v>
+        <v>0.01858302825893243</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.02967019236962565</v>
+        <v>0.02926918329459976</v>
       </c>
     </row>
     <row r="64">
@@ -4693,19 +4693,19 @@
         <v>7780</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>2609</v>
+        <v>2810</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>16650</v>
+        <v>15729</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.004092653442539469</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.001372595774786276</v>
+        <v>0.001478112866514449</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.008758293180955379</v>
+        <v>0.008273843808931749</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>5</v>
@@ -4714,19 +4714,19 @@
         <v>4612</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>1417</v>
+        <v>1490</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>11018</v>
+        <v>11047</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.003092923498221302</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.0009506712389523806</v>
+        <v>0.0009991554955255753</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.007389795975353597</v>
+        <v>0.007409151227092379</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>11</v>
@@ -4735,19 +4735,19 @@
         <v>12392</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>6464</v>
+        <v>5813</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>21302</v>
+        <v>21706</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.003653209445856042</v>
+        <v>0.003653209445856041</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.001905587250151441</v>
+        <v>0.001713636442752311</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.006280094118675094</v>
+        <v>0.006399169943735006</v>
       </c>
     </row>
     <row r="65">
@@ -4764,19 +4764,19 @@
         <v>82649</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>62107</v>
+        <v>63815</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>104358</v>
+        <v>104529</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.0434756810910002</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.03267006876454659</v>
+        <v>0.0335682723925006</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.05489518313080748</v>
+        <v>0.05498537793551237</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>80</v>
@@ -4785,19 +4785,19 @@
         <v>60229</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>47486</v>
+        <v>47516</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>75920</v>
+        <v>75564</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.04039412712021555</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.03184795602793373</v>
+        <v>0.03186793594041391</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.05091782939741613</v>
+        <v>0.05067905582303042</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>145</v>
@@ -4806,19 +4806,19 @@
         <v>142878</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>120377</v>
+        <v>118527</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>169484</v>
+        <v>168505</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.04212114489788771</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.03548790267716294</v>
+        <v>0.03494247019386486</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.0499650117482166</v>
+        <v>0.04967632825186086</v>
       </c>
     </row>
     <row r="66">
@@ -4835,19 +4835,19 @@
         <v>11499</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>6359</v>
+        <v>6126</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>20632</v>
+        <v>20765</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.006048606764603936</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.003345096439866065</v>
+        <v>0.003222519794999763</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.01085320886206347</v>
+        <v>0.01092284123572506</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>7</v>
@@ -4856,19 +4856,19 @@
         <v>8333</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>3323</v>
+        <v>3331</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>17862</v>
+        <v>18588</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.00558908159493729</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.002228554873394108</v>
+        <v>0.002233899920796556</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.01197958917671474</v>
+        <v>0.01246629041597428</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>18</v>
@@ -4877,19 +4877,19 @@
         <v>19832</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>12092</v>
+        <v>11872</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>31158</v>
+        <v>31617</v>
       </c>
       <c r="U66" s="6" t="n">
-        <v>0.00584661663888787</v>
+        <v>0.005846616638887871</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.003564690812461796</v>
+        <v>0.003500022282127604</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.00918561097194796</v>
+        <v>0.009320775880954276</v>
       </c>
     </row>
     <row r="67">
@@ -4906,19 +4906,19 @@
         <v>59062</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>43752</v>
+        <v>44287</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>76487</v>
+        <v>77043</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.03106833708956038</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.02301495918259079</v>
+        <v>0.0232964704524458</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.04023448475628742</v>
+        <v>0.04052669103682802</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>88</v>
@@ -4927,19 +4927,19 @@
         <v>74879</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>60804</v>
+        <v>58699</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>94852</v>
+        <v>92330</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.0502200378807845</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.04078020285661545</v>
+        <v>0.03936822163918156</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.06361535190619501</v>
+        <v>0.06192361021996586</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>138</v>
@@ -4948,19 +4948,19 @@
         <v>133941</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>112636</v>
+        <v>110288</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>158058</v>
+        <v>159273</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.039486710458101</v>
+        <v>0.03948671045810102</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.03320561502956627</v>
+        <v>0.03251357194834514</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.0465964131034949</v>
+        <v>0.04695448543496595</v>
       </c>
     </row>
     <row r="68">
@@ -4977,19 +4977,19 @@
         <v>1234279</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1183290</v>
+        <v>1188883</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>1282053</v>
+        <v>1281316</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>0.6492657776353868</v>
+        <v>0.6492657776353867</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.6224442868364374</v>
+        <v>0.6253861766198159</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.6743960864839501</v>
+        <v>0.6740085802620297</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>988</v>
@@ -4998,19 +4998,19 @@
         <v>743470</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>708109</v>
+        <v>708253</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>777349</v>
+        <v>776591</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.4986301835043386</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.4749147604650261</v>
+        <v>0.4750108394947112</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.5213527147728495</v>
+        <v>0.5208438197041509</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>2049</v>
@@ -5019,19 +5019,19 @@
         <v>1977749</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>1920704</v>
+        <v>1911493</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>2037008</v>
+        <v>2033388</v>
       </c>
       <c r="U68" s="6" t="n">
-        <v>0.583051988697738</v>
+        <v>0.5830519886977381</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.5662347106798402</v>
+        <v>0.5635194454492982</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.6005218646417987</v>
+        <v>0.5994545844178287</v>
       </c>
     </row>
     <row r="69">
@@ -5048,19 +5048,19 @@
         <v>28337</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>17501</v>
+        <v>16606</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>46497</v>
+        <v>45795</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.01490586786616768</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.009205823890281288</v>
+        <v>0.008735174379534805</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.02445863613862729</v>
+        <v>0.02408968769949025</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>19</v>
@@ -5069,19 +5069,19 @@
         <v>14915</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>9427</v>
+        <v>9486</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>22008</v>
+        <v>23148</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.01000287801298127</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.006322484482464199</v>
+        <v>0.006361777594536418</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.01476036435495609</v>
+        <v>0.01552512416063366</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>39</v>
@@ -5090,19 +5090,19 @@
         <v>43251</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>31010</v>
+        <v>30469</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>62214</v>
+        <v>63201</v>
       </c>
       <c r="U69" s="6" t="n">
-        <v>0.01275069639308352</v>
+        <v>0.01275069639308353</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.009141916032861878</v>
+        <v>0.008982394206721367</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.0183411270925904</v>
+        <v>0.0186320824947583</v>
       </c>
     </row>
     <row r="70">
@@ -5119,19 +5119,19 @@
         <v>264972</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>232000</v>
+        <v>233606</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>300709</v>
+        <v>303302</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.1393829060579929</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.1220388008980317</v>
+        <v>0.1228831651594762</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.1581816808817592</v>
+        <v>0.1595456743854568</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>490</v>
@@ -5140,19 +5140,19 @@
         <v>361922</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>330374</v>
+        <v>335149</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>392558</v>
+        <v>396730</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.2427339422025397</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.2215754265137843</v>
+        <v>0.2247775381306592</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.2632805473079393</v>
+        <v>0.2660786869668469</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>713</v>
@@ -5161,19 +5161,19 @@
         <v>626895</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>579839</v>
+        <v>585602</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>672810</v>
+        <v>675489</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.1848121668727303</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.1709398912023746</v>
+        <v>0.1726389843278454</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.1983481836191971</v>
+        <v>0.1991380952339413</v>
       </c>
     </row>
     <row r="71">
